--- a/assets/read-me/testing.xlsx
+++ b/assets/read-me/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c2d4706cdffd893/3. EDUCATION/FULLSTACK SOFTWARE DEVELOPMENT DIPLOMA/MS-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{67B22251-1CDE-4A42-BE5A-D1762AAEA8FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{926A3224-9FA8-4153-9FEE-6241EB3D2200}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{67B22251-1CDE-4A42-BE5A-D1762AAEA8FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8779A615-24E0-4268-B1BC-052505E2D4B1}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5A23EB50-F6EE-45F3-A5F7-94914E52C60F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
   <si>
     <t>Test Criteria &amp; Features</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>&lt;p&gt; Elements under the landing page icons' toggle on and off on click</t>
+  </si>
+  <si>
+    <t>Hero image and Form background images to be clear and have Parrallex styling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images are pixelated, zoomed-in, and static. </t>
+  </si>
+  <si>
+    <t>1. Added a media query specific to IOS and set the background image to attachement to scroll</t>
   </si>
 </sst>
 </file>
@@ -635,6 +644,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,18 +668,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,18 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,14 +1088,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1101,11 +1110,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="6" t="s">
         <v>86</v>
       </c>
@@ -1130,11 +1139,11 @@
         <v>57</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="32"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="17" t="s">
         <v>59</v>
       </c>
@@ -1158,11 +1167,11 @@
         <v>60</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="17" t="s">
         <v>3</v>
       </c>
@@ -1186,11 +1195,11 @@
         <v>65</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="32"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="17" t="s">
         <v>3</v>
       </c>
@@ -1214,11 +1223,11 @@
         <v>69</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>70</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="32"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="17" t="s">
         <v>3</v>
       </c>
@@ -1309,22 +1318,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1351,14 +1360,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1373,11 +1382,11 @@
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="6" t="s">
         <v>86</v>
       </c>
@@ -1488,14 +1497,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1510,11 +1519,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1567,11 +1576,11 @@
         <v>101</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
@@ -1662,6 +1671,8 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
@@ -1672,8 +1683,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1682,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FACEED-12E5-4B7A-B200-FE4D145D4ADD}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,15 +1708,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="2:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1717,11 +1726,11 @@
         <v>9</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="20" t="s">
         <v>11</v>
       </c>
@@ -1836,11 +1845,11 @@
         <v>37</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1853,12 +1862,12 @@
         <v>41</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="2:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
@@ -1868,11 +1877,11 @@
         <v>44</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="25" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="22" t="s">
         <v>47</v>
       </c>
@@ -1885,11 +1894,11 @@
         <v>49</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="22" t="s">
         <v>51</v>
       </c>
@@ -1902,12 +1911,12 @@
         <v>53</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
@@ -1917,17 +1926,40 @@
         <v>116</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="25" t="s">
         <v>117</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="32"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="22" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="16" spans="2:8" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -1935,13 +1967,6 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
